--- a/학사관리 샘플데이터/샘플-데이터-제1정규화(.xlsx
+++ b/학사관리 샘플데이터/샘플-데이터-제1정규화(.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="558">
   <si>
     <t>학번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1802,6 +1802,13 @@
   <si>
     <t>S0020</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0020</t>
   </si>
 </sst>
 </file>
@@ -2094,7 +2101,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AFE27EF-43B7-4808-99EA-AE410A6D5ED9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFE27EF-43B7-4808-99EA-AE410A6D5ED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2155,7 +2162,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2B7F705-6773-49A6-B920-B47F42BEFA80}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B7F705-6773-49A6-B920-B47F42BEFA80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2508,14 +2515,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>214</v>
+        <v>556</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-5948-4113</v>
+        <v>010-3523-3530</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>314</v>
@@ -2537,14 +2544,14 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>215</v>
+        <v>453</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="0">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-8618-1942</v>
+        <v>010-1940-8499</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>315</v>
@@ -2566,14 +2573,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>216</v>
+        <v>454</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3508-7820</v>
+        <v>010-8237-7446</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>348</v>
@@ -2595,14 +2602,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>217</v>
+        <v>455</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9082-6723</v>
+        <v>010-3942-4857</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>349</v>
@@ -2624,14 +2631,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>218</v>
+        <v>456</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8120-9356</v>
+        <v>010-1095-9777</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>316</v>
@@ -2653,14 +2660,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>219</v>
+        <v>457</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1903-3496</v>
+        <v>010-5289-8449</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>317</v>
@@ -2682,14 +2689,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>220</v>
+        <v>458</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1329-4891</v>
+        <v>010-9892-1426</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>344</v>
@@ -2711,14 +2718,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>221</v>
+        <v>459</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9057-4721</v>
+        <v>010-4226-5760</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>318</v>
@@ -2740,14 +2747,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>222</v>
+        <v>460</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1616-4376</v>
+        <v>010-7366-7919</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>319</v>
@@ -2769,14 +2776,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>223</v>
+        <v>461</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7516-2658</v>
+        <v>010-3820-4440</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>346</v>
@@ -2798,14 +2805,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>224</v>
+        <v>462</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9258-3181</v>
+        <v>010-4635-1412</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>347</v>
@@ -2827,14 +2834,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>225</v>
+        <v>463</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1617-8120</v>
+        <v>010-2496-5406</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>320</v>
@@ -2856,14 +2863,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>226</v>
+        <v>464</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7501-0872</v>
+        <v>010-6617-2751</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>350</v>
@@ -2885,14 +2892,14 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>227</v>
+        <v>465</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8899-0457</v>
+        <v>010-3769-7457</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>321</v>
@@ -2914,14 +2921,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>228</v>
+        <v>466</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3225-2268</v>
+        <v>010-5038-6971</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>322</v>
@@ -2943,14 +2950,14 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>229</v>
+        <v>467</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9889-9137</v>
+        <v>010-5960-0382</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>323</v>
@@ -2972,14 +2979,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>230</v>
+        <v>468</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1680-5832</v>
+        <v>010-3440-7528</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>345</v>
@@ -3001,14 +3008,14 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>231</v>
+        <v>469</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8494-3692</v>
+        <v>010-9655-6576</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>351</v>
@@ -3030,14 +3037,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>232</v>
+        <v>470</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7908-6406</v>
+        <v>010-3730-6211</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>352</v>
@@ -3059,14 +3066,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>233</v>
+        <v>557</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1228-4834</v>
+        <v>010-8846-4128</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>353</v>
@@ -3088,14 +3095,14 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>234</v>
+        <v>471</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9282-0150</v>
+        <v>010-3039-0100</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>354</v>
@@ -3117,14 +3124,14 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>235</v>
+        <v>472</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9689-2874</v>
+        <v>010-7076-7719</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>355</v>
@@ -3146,14 +3153,14 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>236</v>
+        <v>473</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2028-6523</v>
+        <v>010-1219-6980</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>324</v>
@@ -3175,14 +3182,14 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>237</v>
+        <v>474</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8553-0169</v>
+        <v>010-2954-1134</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>325</v>
@@ -3204,14 +3211,14 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>238</v>
+        <v>475</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7741-3848</v>
+        <v>010-3849-4137</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>326</v>
@@ -3233,14 +3240,14 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>239</v>
+        <v>476</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3169-4022</v>
+        <v>010-5665-8772</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>356</v>
@@ -3262,14 +3269,14 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>240</v>
+        <v>477</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4243-2073</v>
+        <v>010-3884-0561</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>357</v>
@@ -3291,14 +3298,14 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>241</v>
+        <v>478</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5822-9063</v>
+        <v>010-2757-8254</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>358</v>
@@ -3320,14 +3327,14 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>242</v>
+        <v>479</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1178-0647</v>
+        <v>010-1548-6918</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>327</v>
@@ -3349,14 +3356,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>243</v>
+        <v>480</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5110-5749</v>
+        <v>010-9976-0935</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>328</v>
@@ -3378,14 +3385,14 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>244</v>
+        <v>481</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1799-9686</v>
+        <v>010-3119-9830</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>359</v>
@@ -3407,14 +3414,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>245</v>
+        <v>482</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8047-0587</v>
+        <v>010-3587-6227</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>329</v>
@@ -3436,14 +3443,14 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>246</v>
+        <v>483</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1879-3747</v>
+        <v>010-2028-7571</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>330</v>
@@ -3465,14 +3472,14 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>247</v>
+        <v>484</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5833-3240</v>
+        <v>010-8989-0203</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>331</v>
@@ -3494,14 +3501,14 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>248</v>
+        <v>485</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2437-0914</v>
+        <v>010-2052-6618</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>332</v>
@@ -3523,14 +3530,14 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>249</v>
+        <v>486</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7477-9084</v>
+        <v>010-7232-6403</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>333</v>
@@ -3552,14 +3559,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>250</v>
+        <v>487</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8805-4743</v>
+        <v>010-5425-5172</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>360</v>
@@ -3581,14 +3588,14 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>251</v>
+        <v>488</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6100-2016</v>
+        <v>010-9790-6770</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>361</v>
@@ -3610,14 +3617,14 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>252</v>
+        <v>489</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8878-7948</v>
+        <v>010-7710-9088</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>362</v>
@@ -3639,14 +3646,14 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>253</v>
+        <v>490</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6271-2904</v>
+        <v>010-5220-4545</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>363</v>
@@ -3668,14 +3675,14 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>254</v>
+        <v>491</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2381-1327</v>
+        <v>010-8018-8240</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>334</v>
@@ -3697,14 +3704,14 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>255</v>
+        <v>492</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3029-8879</v>
+        <v>010-5382-8906</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>335</v>
@@ -3726,14 +3733,14 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>256</v>
+        <v>493</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9052-1918</v>
+        <v>010-4380-0408</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>336</v>
@@ -3755,14 +3762,14 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>257</v>
+        <v>494</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4366-3094</v>
+        <v>010-1252-7043</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>337</v>
@@ -3784,14 +3791,14 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>258</v>
+        <v>495</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1510-9752</v>
+        <v>010-7990-0887</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>364</v>
@@ -3813,14 +3820,14 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>259</v>
+        <v>496</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6250-4081</v>
+        <v>010-9416-9535</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>365</v>
@@ -3842,14 +3849,14 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>260</v>
+        <v>497</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6871-2888</v>
+        <v>010-9446-8944</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>366</v>
@@ -3871,14 +3878,14 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>261</v>
+        <v>498</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3199-5738</v>
+        <v>010-9887-9113</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>367</v>
@@ -3900,14 +3907,14 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>262</v>
+        <v>499</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3071-6900</v>
+        <v>010-4254-9171</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>338</v>
@@ -3929,14 +3936,14 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>263</v>
+        <v>500</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2309-0202</v>
+        <v>010-3665-5136</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>339</v>
@@ -3958,14 +3965,14 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>264</v>
+        <v>501</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8973-5432</v>
+        <v>010-4190-9528</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>340</v>
@@ -3987,14 +3994,14 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>265</v>
+        <v>502</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9663-1206</v>
+        <v>010-6234-0198</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>341</v>
@@ -4016,14 +4023,14 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>266</v>
+        <v>503</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3444-6719</v>
+        <v>010-3994-9986</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>368</v>
@@ -4045,14 +4052,14 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>267</v>
+        <v>504</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8913-3128</v>
+        <v>010-8939-2856</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>369</v>
@@ -4074,14 +4081,14 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>268</v>
+        <v>505</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9187-5817</v>
+        <v>010-1351-2211</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>342</v>
@@ -4103,14 +4110,14 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>269</v>
+        <v>506</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2140-0114</v>
+        <v>010-2894-8891</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>370</v>
@@ -4132,14 +4139,14 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>270</v>
+        <v>507</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7181-4033</v>
+        <v>010-2196-2643</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>343</v>
@@ -4161,14 +4168,14 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>271</v>
+        <v>508</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8516-7556</v>
+        <v>010-4636-3993</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>371</v>
@@ -4190,14 +4197,14 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>272</v>
+        <v>509</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9574-2215</v>
+        <v>010-8512-9010</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>372</v>
@@ -4219,14 +4226,14 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>273</v>
+        <v>510</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5428-2420</v>
+        <v>010-4494-1807</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>373</v>
@@ -4248,14 +4255,14 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>274</v>
+        <v>511</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6449-9446</v>
+        <v>010-8694-0992</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>404</v>
@@ -4277,14 +4284,14 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>275</v>
+        <v>512</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5389-2507</v>
+        <v>010-6957-6608</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>374</v>
@@ -4306,14 +4313,14 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>276</v>
+        <v>513</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2291-7823</v>
+        <v>010-5878-9089</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>375</v>
@@ -4335,14 +4342,14 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>277</v>
+        <v>514</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3434-7399</v>
+        <v>010-3840-8522</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>376</v>
@@ -4364,14 +4371,14 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>278</v>
+        <v>515</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C66" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1571-4860</v>
+        <v>010-4428-8068</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>377</v>
@@ -4393,14 +4400,14 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>279</v>
+        <v>516</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="5" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-2234-8527</v>
+        <v>010-5303-6227</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>378</v>
@@ -4422,14 +4429,14 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>280</v>
+        <v>517</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3497-7046</v>
+        <v>010-9114-2944</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>379</v>
@@ -4451,14 +4458,14 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>281</v>
+        <v>518</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4369-9521</v>
+        <v>010-6869-8282</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>405</v>
@@ -4480,14 +4487,14 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>282</v>
+        <v>519</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3858-8635</v>
+        <v>010-6773-1455</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>380</v>
@@ -4509,14 +4516,14 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>283</v>
+        <v>520</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>71</v>
       </c>
       <c r="C71" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1111-3224</v>
+        <v>010-4707-7511</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>406</v>
@@ -4538,14 +4545,14 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>284</v>
+        <v>521</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C72" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9284-9225</v>
+        <v>010-6913-9766</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>381</v>
@@ -4567,14 +4574,14 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>285</v>
+        <v>522</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1579-2268</v>
+        <v>010-4315-3356</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>382</v>
@@ -4596,14 +4603,14 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>286</v>
+        <v>523</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4717-1380</v>
+        <v>010-3260-9870</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>383</v>
@@ -4625,14 +4632,14 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>287</v>
+        <v>524</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C75" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3042-9288</v>
+        <v>010-8308-0303</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>384</v>
@@ -4654,14 +4661,14 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>288</v>
+        <v>525</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C76" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2986-1579</v>
+        <v>010-5533-5527</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>407</v>
@@ -4683,14 +4690,14 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>289</v>
+        <v>526</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C77" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4024-9317</v>
+        <v>010-2097-7711</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>408</v>
@@ -4712,14 +4719,14 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>290</v>
+        <v>527</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9176-3773</v>
+        <v>010-7153-6378</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>385</v>
@@ -4741,14 +4748,14 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>291</v>
+        <v>528</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3937-2271</v>
+        <v>010-5691-3294</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>386</v>
@@ -4770,14 +4777,14 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>292</v>
+        <v>529</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>80</v>
       </c>
       <c r="C80" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8183-1867</v>
+        <v>010-6363-9482</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>409</v>
@@ -4799,14 +4806,14 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>293</v>
+        <v>530</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C81" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6772-8005</v>
+        <v>010-8531-0122</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>387</v>
@@ -4828,14 +4835,14 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>294</v>
+        <v>531</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C82" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5695-7000</v>
+        <v>010-1376-4187</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>410</v>
@@ -4857,14 +4864,14 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>295</v>
+        <v>532</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5782-3093</v>
+        <v>010-2313-3707</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>388</v>
@@ -4886,14 +4893,14 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>296</v>
+        <v>533</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C84" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5409-0731</v>
+        <v>010-3716-1738</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>389</v>
@@ -4915,14 +4922,14 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>297</v>
+        <v>534</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C85" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7184-5313</v>
+        <v>010-8068-3979</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>390</v>
@@ -4944,14 +4951,14 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>298</v>
+        <v>535</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C86" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2862-4457</v>
+        <v>010-6878-7998</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>391</v>
@@ -4973,14 +4980,14 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>299</v>
+        <v>536</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5170-3536</v>
+        <v>010-4680-4579</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>392</v>
@@ -5002,14 +5009,14 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>300</v>
+        <v>537</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C88" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2196-1427</v>
+        <v>010-5617-6487</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>411</v>
@@ -5031,14 +5038,14 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>301</v>
+        <v>538</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C89" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1549-3690</v>
+        <v>010-9050-9202</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>393</v>
@@ -5060,14 +5067,14 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>302</v>
+        <v>539</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C90" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2032-1153</v>
+        <v>010-3290-1948</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>394</v>
@@ -5089,14 +5096,14 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>303</v>
+        <v>540</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C91" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6135-4131</v>
+        <v>010-2998-4775</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>395</v>
@@ -5118,14 +5125,14 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>304</v>
+        <v>541</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6817-7006</v>
+        <v>010-1498-3713</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>396</v>
@@ -5147,14 +5154,14 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>305</v>
+        <v>542</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C93" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2821-4472</v>
+        <v>010-8426-9849</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>397</v>
@@ -5176,14 +5183,14 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>306</v>
+        <v>543</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C94" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3945-6228</v>
+        <v>010-7497-7364</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>398</v>
@@ -5205,14 +5212,14 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>307</v>
+        <v>544</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>95</v>
       </c>
       <c r="C95" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9793-7055</v>
+        <v>010-6427-7124</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>412</v>
@@ -5234,14 +5241,14 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>308</v>
+        <v>545</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C96" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6354-5947</v>
+        <v>010-1575-8831</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>413</v>
@@ -5263,14 +5270,14 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>309</v>
+        <v>546</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C97" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5069-4868</v>
+        <v>010-9552-4228</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>399</v>
@@ -5292,14 +5299,14 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>310</v>
+        <v>547</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C98" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3691-6769</v>
+        <v>010-2150-9201</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>400</v>
@@ -5321,14 +5328,14 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>311</v>
+        <v>548</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C99" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2072-9611</v>
+        <v>010-1510-3775</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>401</v>
@@ -5350,14 +5357,14 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>312</v>
+        <v>549</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C100" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4464-4658</v>
+        <v>010-8659-3035</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>402</v>
@@ -5378,15 +5385,15 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>313</v>
+      <c r="A101" s="4" t="s">
+        <v>550</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C101" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1974-9488</v>
+        <v>010-5982-8089</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>403</v>
@@ -5411,7 +5418,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A101 F2:F101" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:F101" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5564,7 +5571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
@@ -15453,39 +15460,39 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:I22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:I17" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="J2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="K2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -15497,39 +15504,39 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:I23" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J21" ca="1" si="3">SUM(C3:E3)</f>
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K21" ca="1" si="4">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -15541,39 +15548,39 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="3"/>
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -15585,39 +15592,39 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="3"/>
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -15629,39 +15636,39 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="3"/>
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -15673,39 +15680,39 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="3"/>
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -15717,35 +15724,35 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="4"/>
@@ -15761,39 +15768,39 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="3"/>
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -15805,39 +15812,39 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="3"/>
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -15849,39 +15856,39 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="3"/>
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -15897,35 +15904,35 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="3"/>
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -15937,39 +15944,39 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -15981,39 +15988,39 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -16025,7 +16032,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
@@ -16033,31 +16040,31 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -16069,39 +16076,39 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -16113,23 +16120,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
@@ -16137,15 +16144,15 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -16157,39 +16164,39 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -16201,39 +16208,39 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="3"/>
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -16245,39 +16252,39 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -16289,39 +16296,39 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -16333,39 +16340,39 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22:J85" ca="1" si="5">SUM(C22:E22)</f>
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="K22">
         <f t="shared" ref="K22:K85" ca="1" si="6">ROUND(AVERAGE(C22:E22),0)</f>
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -16377,23 +16384,23 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
@@ -16401,15 +16408,15 @@
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -16421,39 +16428,39 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:I87" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -16465,39 +16472,39 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -16509,39 +16516,39 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -16553,39 +16560,39 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -16597,19 +16604,19 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
@@ -16617,19 +16624,19 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -16641,7 +16648,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="7"/>
@@ -16649,31 +16656,31 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -16685,39 +16692,39 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -16729,39 +16736,39 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -16773,39 +16780,39 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -16817,39 +16824,39 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -16861,39 +16868,39 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -16909,35 +16916,35 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -16949,39 +16956,39 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H36">
         <f t="shared" ref="F36:I99" ca="1" si="8">RANDBETWEEN(50,100)</f>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -16993,39 +17000,39 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E37">
         <f t="shared" ref="E37:I100" ca="1" si="9">RANDBETWEEN(50,100)</f>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -17037,39 +17044,39 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -17081,39 +17088,39 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="8"/>
         <v>56</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ca="1" si="8"/>
-        <v>52</v>
-      </c>
-      <c r="H39">
-        <f t="shared" ca="1" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="I39">
-        <f t="shared" ca="1" si="8"/>
-        <v>93</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -17125,39 +17132,39 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -17169,39 +17176,39 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -17213,39 +17220,39 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="8"/>
+        <v>71</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="8"/>
         <v>91</v>
-      </c>
-      <c r="F42">
-        <f t="shared" ca="1" si="8"/>
-        <v>66</v>
-      </c>
-      <c r="G42">
-        <f t="shared" ca="1" si="8"/>
-        <v>89</v>
-      </c>
-      <c r="H42">
-        <f t="shared" ca="1" si="8"/>
-        <v>89</v>
-      </c>
-      <c r="I42">
-        <f t="shared" ca="1" si="8"/>
-        <v>86</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -17257,39 +17264,39 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="8"/>
+        <v>78</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="8"/>
         <v>95</v>
       </c>
-      <c r="F43">
-        <f t="shared" ca="1" si="8"/>
-        <v>88</v>
-      </c>
-      <c r="G43">
-        <f t="shared" ca="1" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="H43">
-        <f t="shared" ca="1" si="8"/>
-        <v>96</v>
-      </c>
       <c r="I43">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -17301,7 +17308,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="7"/>
@@ -17309,31 +17316,31 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -17345,39 +17352,39 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -17389,39 +17396,39 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -17433,39 +17440,39 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -17477,39 +17484,39 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="8"/>
+        <v>96</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="8"/>
         <v>87</v>
       </c>
-      <c r="H48">
-        <f t="shared" ca="1" si="8"/>
-        <v>92</v>
-      </c>
       <c r="I48">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -17521,39 +17528,39 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -17565,39 +17572,39 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -17609,39 +17616,39 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -17653,39 +17660,39 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="5"/>
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -17697,39 +17704,39 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="5"/>
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -17741,39 +17748,39 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="5"/>
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -17785,39 +17792,39 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -17829,27 +17836,27 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="9"/>
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="8"/>
@@ -17857,11 +17864,11 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -17873,39 +17880,39 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -17921,35 +17928,35 @@
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="9"/>
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -17961,39 +17968,39 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -18005,39 +18012,39 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -18049,39 +18056,39 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -18093,39 +18100,39 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -18137,39 +18144,39 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="5"/>
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -18181,39 +18188,39 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="5"/>
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -18225,39 +18232,39 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -18269,39 +18276,39 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ca="1" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ca="1" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ca="1" si="8"/>
         <v>73</v>
-      </c>
-      <c r="G66">
-        <f t="shared" ca="1" si="8"/>
-        <v>61</v>
-      </c>
-      <c r="H66">
-        <f t="shared" ca="1" si="8"/>
-        <v>62</v>
-      </c>
-      <c r="I66">
-        <f t="shared" ca="1" si="8"/>
-        <v>87</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="5"/>
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -18313,39 +18320,39 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -18357,39 +18364,39 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="9"/>
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="5"/>
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -18401,39 +18408,39 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ca="1" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ca="1" si="8"/>
         <v>96</v>
       </c>
-      <c r="F69">
-        <f t="shared" ca="1" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G69">
-        <f t="shared" ca="1" si="8"/>
-        <v>78</v>
-      </c>
-      <c r="H69">
-        <f t="shared" ca="1" si="8"/>
-        <v>61</v>
-      </c>
       <c r="I69">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="5"/>
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -18445,39 +18452,39 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="5"/>
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -18489,39 +18496,39 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="5"/>
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -18533,39 +18540,39 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="9"/>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="5"/>
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -18577,39 +18584,39 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="5"/>
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -18621,39 +18628,39 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="H74">
+        <f t="shared" ca="1" si="8"/>
         <v>98</v>
       </c>
-      <c r="H74">
-        <f t="shared" ca="1" si="8"/>
-        <v>81</v>
-      </c>
       <c r="I74">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="5"/>
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -18665,39 +18672,39 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="5"/>
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -18709,39 +18716,39 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="9"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="5"/>
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -18753,39 +18760,39 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="9"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="5"/>
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -18797,39 +18804,39 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="9"/>
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="5"/>
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -18841,39 +18848,39 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="5"/>
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -18885,39 +18892,39 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="5"/>
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -18929,27 +18936,27 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="8"/>
@@ -18957,11 +18964,11 @@
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="5"/>
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -18973,39 +18980,39 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="5"/>
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -19017,27 +19024,27 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="9"/>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="8"/>
@@ -19045,11 +19052,11 @@
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="5"/>
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -19061,15 +19068,15 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="8"/>
@@ -19077,23 +19084,23 @@
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ca="1" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ca="1" si="8"/>
         <v>95</v>
-      </c>
-      <c r="H84">
-        <f t="shared" ca="1" si="8"/>
-        <v>84</v>
-      </c>
-      <c r="I84">
-        <f t="shared" ca="1" si="8"/>
-        <v>100</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="5"/>
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -19105,11 +19112,11 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="9"/>
@@ -19117,27 +19124,27 @@
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="8"/>
+        <v>97</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ca="1" si="8"/>
         <v>76</v>
       </c>
-      <c r="H85">
-        <f t="shared" ca="1" si="8"/>
-        <v>53</v>
-      </c>
       <c r="I85">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="5"/>
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -19149,39 +19156,39 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="9"/>
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J86">
         <f t="shared" ref="J86:J101" ca="1" si="10">SUM(C86:E86)</f>
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K86">
         <f t="shared" ref="K86:K101" ca="1" si="11">ROUND(AVERAGE(C86:E86),0)</f>
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -19193,39 +19200,39 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="10"/>
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="11"/>
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -19237,39 +19244,39 @@
       </c>
       <c r="C88">
         <f t="shared" ref="C88:I101" ca="1" si="12">RANDBETWEEN(50,100)</f>
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="12"/>
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="G88">
+        <f t="shared" ca="1" si="8"/>
+        <v>86</v>
+      </c>
+      <c r="H88">
+        <f t="shared" ca="1" si="8"/>
         <v>54</v>
       </c>
-      <c r="F88">
-        <f t="shared" ca="1" si="8"/>
-        <v>86</v>
-      </c>
-      <c r="G88">
-        <f t="shared" ca="1" si="8"/>
-        <v>91</v>
-      </c>
-      <c r="H88">
-        <f t="shared" ca="1" si="8"/>
-        <v>55</v>
-      </c>
       <c r="I88">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="10"/>
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -19285,11 +19292,11 @@
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="12"/>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="8"/>
@@ -19297,23 +19304,23 @@
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="10"/>
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -19325,39 +19332,39 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="12"/>
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="10"/>
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="11"/>
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -19369,39 +19376,39 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="12"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="12"/>
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="10"/>
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -19413,19 +19420,19 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="12"/>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="12"/>
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="8"/>
@@ -19433,19 +19440,19 @@
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="10"/>
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -19457,39 +19464,39 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="12"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="12"/>
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="10"/>
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -19501,39 +19508,39 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="12"/>
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="12"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="G94">
+        <f t="shared" ca="1" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ca="1" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ca="1" si="8"/>
         <v>64</v>
-      </c>
-      <c r="F94">
-        <f t="shared" ca="1" si="8"/>
-        <v>87</v>
-      </c>
-      <c r="G94">
-        <f t="shared" ca="1" si="8"/>
-        <v>59</v>
-      </c>
-      <c r="H94">
-        <f t="shared" ca="1" si="8"/>
-        <v>68</v>
-      </c>
-      <c r="I94">
-        <f t="shared" ca="1" si="8"/>
-        <v>60</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="10"/>
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="11"/>
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -19545,11 +19552,11 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="9"/>
@@ -19557,11 +19564,11 @@
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="8"/>
@@ -19569,15 +19576,15 @@
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="10"/>
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="11"/>
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -19589,39 +19596,39 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="12"/>
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="10"/>
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="11"/>
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -19633,39 +19640,39 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="12"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="12"/>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ca="1" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ca="1" si="8"/>
         <v>98</v>
       </c>
-      <c r="F97">
-        <f t="shared" ca="1" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="G97">
-        <f t="shared" ca="1" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="H97">
-        <f t="shared" ca="1" si="8"/>
-        <v>59</v>
-      </c>
       <c r="I97">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="10"/>
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="11"/>
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -19677,39 +19684,39 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="12"/>
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="12"/>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="10"/>
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="11"/>
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -19721,11 +19728,11 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="9"/>
@@ -19733,27 +19740,27 @@
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="10"/>
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -19765,39 +19772,39 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="12"/>
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="12"/>
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="9"/>
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="9"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="9"/>
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="10"/>
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="11"/>
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -19809,39 +19816,39 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="12"/>
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="12"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="12"/>
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="12"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="11"/>
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -19896,23 +19903,23 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:E22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -19924,23 +19931,23 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:E23" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="2">SUM(C3:E3)</f>
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="3">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -19952,23 +19959,23 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -19980,23 +19987,23 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -20008,23 +20015,23 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -20036,23 +20043,23 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -20064,23 +20071,23 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -20092,23 +20099,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -20120,23 +20127,23 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -20148,23 +20155,23 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -20176,23 +20183,23 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -20204,19 +20211,19 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
@@ -20232,23 +20239,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -20260,23 +20267,23 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -20288,23 +20295,23 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -20316,23 +20323,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -20344,23 +20351,23 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -20372,23 +20379,23 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -20400,23 +20407,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -20428,23 +20435,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -20456,23 +20463,23 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -20484,23 +20491,23 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -20512,23 +20519,23 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:E60" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -20540,23 +20547,23 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -20568,23 +20575,23 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -20596,23 +20603,23 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -20624,19 +20631,19 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
@@ -20652,23 +20659,23 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -20680,23 +20687,23 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -20708,23 +20715,23 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -20736,23 +20743,23 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -20764,23 +20771,23 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -20792,23 +20799,23 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -20820,23 +20827,23 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -20848,23 +20855,23 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -20876,23 +20883,23 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -20904,23 +20911,23 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -20936,19 +20943,19 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -20960,23 +20967,23 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -20988,23 +20995,23 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -21016,23 +21023,23 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -21044,23 +21051,23 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>220</v>
+        <v>291</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -21072,23 +21079,23 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -21100,23 +21107,23 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -21132,19 +21139,19 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -21156,23 +21163,23 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -21184,23 +21191,23 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -21212,23 +21219,23 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -21240,23 +21247,23 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -21268,23 +21275,23 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -21296,23 +21303,23 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -21324,23 +21331,23 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -21352,23 +21359,23 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -21380,23 +21387,23 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -21408,23 +21415,23 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -21436,23 +21443,23 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -21464,23 +21471,23 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -21492,23 +21499,23 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -21520,23 +21527,23 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -21548,23 +21555,23 @@
       </c>
       <c r="C61">
         <f t="shared" ref="C61:E101" ca="1" si="5">RANDBETWEEN(50,100)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -21576,23 +21583,23 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -21604,23 +21611,23 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -21632,23 +21639,23 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -21660,23 +21667,23 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -21688,23 +21695,23 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -21716,23 +21723,23 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F101" ca="1" si="6">SUM(C67:E67)</f>
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" ca="1" si="7">ROUND(AVERAGE(C67:E67),0)</f>
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -21744,23 +21751,23 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -21772,23 +21779,23 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -21800,23 +21807,23 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="6"/>
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -21828,23 +21835,23 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="6"/>
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -21856,23 +21863,23 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="6"/>
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -21884,23 +21891,23 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="6"/>
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -21912,23 +21919,23 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="6"/>
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -21940,23 +21947,23 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="6"/>
-        <v>192</v>
+        <v>270</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -21968,23 +21975,23 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="6"/>
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -21996,23 +22003,23 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="6"/>
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -22024,19 +22031,19 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="6"/>
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="7"/>
@@ -22056,19 +22063,19 @@
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="6"/>
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -22080,23 +22087,23 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="6"/>
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -22108,23 +22115,23 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="6"/>
-        <v>268</v>
+        <v>185</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -22136,23 +22143,23 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="6"/>
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -22164,23 +22171,23 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -22192,7 +22199,7 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="5"/>
@@ -22200,15 +22207,15 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -22220,23 +22227,23 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -22252,19 +22259,19 @@
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -22276,23 +22283,23 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -22304,23 +22311,23 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -22332,23 +22339,23 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>185</v>
+        <v>278</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -22360,23 +22367,23 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -22388,23 +22395,23 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -22416,23 +22423,23 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -22448,19 +22455,19 @@
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -22472,23 +22479,23 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -22500,23 +22507,23 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -22528,23 +22535,23 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -22556,23 +22563,23 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -22584,23 +22591,23 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -22612,23 +22619,23 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="6"/>
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -22640,23 +22647,23 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="6"/>
-        <v>271</v>
+        <v>194</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -22672,19 +22679,19 @@
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="6"/>
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
